--- a/farmServer/config/Item.xlsx
+++ b/farmServer/config/Item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Files\Farm\豆瓜配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>ItemID</t>
   </si>
@@ -156,6 +156,38 @@
   </si>
   <si>
     <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,94 +543,94 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>10</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -615,16 +647,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -641,27 +673,53 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>10</v>
       </c>
     </row>
@@ -676,7 +734,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/farmServer/config/Item.xlsx
+++ b/farmServer/config/Item.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Files\Farm\豆瓜配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目空间\农场\farmServer\farmServer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
   <si>
     <t>ItemID</t>
   </si>
@@ -44,162 +44,381 @@
   </si>
   <si>
     <t>测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Icon_test_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>物品ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>图标文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>显示名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>介绍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>默认价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最小价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最大价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1作物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2货物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>梨</t>
+  </si>
+  <si>
+    <t>葡萄</t>
+  </si>
+  <si>
+    <t>水蜜桃</t>
+  </si>
+  <si>
+    <t>橙子</t>
+  </si>
+  <si>
+    <t>柚子</t>
+  </si>
+  <si>
+    <t>杏</t>
+  </si>
+  <si>
+    <t>樱桃</t>
+  </si>
+  <si>
+    <t>猕猴桃</t>
+  </si>
+  <si>
+    <t>菠萝</t>
+  </si>
+  <si>
+    <t>柿子</t>
+  </si>
+  <si>
+    <t>黄桃</t>
+  </si>
+  <si>
+    <t>枣</t>
+  </si>
+  <si>
+    <t>核桃</t>
+  </si>
+  <si>
+    <t>石榴</t>
+  </si>
+  <si>
+    <t>荔枝</t>
+  </si>
+  <si>
+    <t>菠萝蜜</t>
+  </si>
+  <si>
+    <t>木瓜</t>
+  </si>
+  <si>
+    <t>龙眼</t>
+  </si>
+  <si>
+    <t>椰子</t>
+  </si>
+  <si>
+    <t>灯笼果</t>
+  </si>
+  <si>
+    <t>茶树</t>
+  </si>
+  <si>
+    <t>茉莉</t>
+  </si>
+  <si>
+    <t>农作物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>鲜牛奶</t>
+  </si>
+  <si>
+    <t>羊毛</t>
+  </si>
+  <si>
+    <t>鱼肉</t>
+  </si>
+  <si>
+    <t>鸭蛋</t>
+  </si>
+  <si>
+    <t>蜂巢</t>
+  </si>
+  <si>
+    <t>动物生产物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡饲料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛饲料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊饲料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼饲料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭饲料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐装牛奶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙汁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果汁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猕猴桃汁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柚子汁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝汁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果汁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蜜桃汁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄汁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰汁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿茶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红茶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花茶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌龙茶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衬衫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐装蜂蜜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红砖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁镐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁铲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锯子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种农作物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛饲料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于喂养牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Animal_MilkA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Crop_Wheat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Folder_Cow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲜牛奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新鲜的牛奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Animal_MilkB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罐装牛奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罐装好的牛奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Fruit_Apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豌豆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫薯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木耳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银耳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -243,21 +462,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -530,202 +777,1765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66:E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10100</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <f>F11-3</f>
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10101</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12:G19" si="0">F12-3</f>
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>10102</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>10103</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>10104</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>10105</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>10106</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>10107</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>10108</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>10109</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>10110</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>10111</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>10112</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>10113</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>10114</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>10115</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H26" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>10116</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>10117</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2">
+        <v>18</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>10118</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>10119</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>20</v>
+      </c>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>10120</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2">
+        <v>6</v>
+      </c>
+      <c r="H31" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>10121</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2">
+        <v>30</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>10122</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+      <c r="H33" s="2">
+        <v>16</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>10123</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2">
+        <v>6</v>
+      </c>
+      <c r="H34" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>20200</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H35" s="2">
+        <v>10</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>20201</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>8</v>
+      </c>
+      <c r="G36" s="2">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H36" s="2">
+        <v>16</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>20202</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H37" s="2">
+        <v>20</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>20203</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="2">
+        <v>20</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>20204</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>8</v>
+      </c>
+      <c r="G39" s="2">
+        <v>4</v>
+      </c>
+      <c r="H39" s="2">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>20205</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="9">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2">
+        <v>7</v>
+      </c>
+      <c r="H40" s="2">
+        <v>30</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>20300</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2">
+        <v>20</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>20301</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="9">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>20</v>
+      </c>
+      <c r="G42" s="2">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>20302</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>15</v>
+      </c>
+      <c r="G43" s="2">
+        <v>7</v>
+      </c>
+      <c r="H43" s="2">
+        <v>30</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>20303</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="9">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>20</v>
+      </c>
+      <c r="G44" s="2">
+        <v>10</v>
+      </c>
+      <c r="H44" s="2">
+        <v>40</v>
+      </c>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>20304</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>15</v>
+      </c>
+      <c r="G45" s="2">
+        <v>7</v>
+      </c>
+      <c r="H45" s="2">
+        <v>30</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>20400</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>4</v>
+      </c>
+      <c r="H46" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>20401</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="9">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="H47" s="2">
+        <v>24</v>
+      </c>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>20402</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="9">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="H48" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>20403</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="9">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>8</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2</v>
+      </c>
+      <c r="H49" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>20404</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="9">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G50" s="2">
+        <v>5</v>
+      </c>
+      <c r="H50" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>20405</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2">
+        <v>6</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3</v>
+      </c>
+      <c r="H51" s="2">
+        <v>12</v>
+      </c>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>20406</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="9">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2">
+        <v>4</v>
+      </c>
+      <c r="H52" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>20407</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="9">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>8</v>
+      </c>
+      <c r="G53" s="2">
+        <v>4</v>
+      </c>
+      <c r="H53" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>20408</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="9">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2">
+        <v>15</v>
+      </c>
+      <c r="G54" s="2">
+        <v>7</v>
+      </c>
+      <c r="H54" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>20500</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="9">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2">
+        <v>5</v>
+      </c>
+      <c r="H55" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>20501</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="9">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2">
+        <v>12</v>
+      </c>
+      <c r="G56" s="2">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>20502</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2</v>
+      </c>
+      <c r="F57" s="2">
+        <v>20</v>
+      </c>
+      <c r="G57" s="2">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H57" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>20503</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="9">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="G58" s="2">
+        <v>7</v>
+      </c>
+      <c r="H58" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>20600</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="9">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2">
+        <v>25</v>
+      </c>
+      <c r="G59" s="2">
+        <v>12</v>
+      </c>
+      <c r="H59" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>20601</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="9">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2">
+        <v>15</v>
+      </c>
+      <c r="G60" s="2">
+        <v>7</v>
+      </c>
+      <c r="H60" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>20700</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="9">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2">
+        <v>8</v>
+      </c>
+      <c r="G61" s="2">
+        <v>4</v>
+      </c>
+      <c r="H61" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>20701</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="9">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2">
+        <v>5</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2</v>
+      </c>
+      <c r="H62" s="2">
         <v>10</v>
       </c>
-      <c r="G5">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>20702</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="9">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
+      </c>
+      <c r="H63" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>20703</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="9">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2">
+        <v>20</v>
+      </c>
+      <c r="G64" s="2">
+        <v>10</v>
+      </c>
+      <c r="H64" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>20704</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="9">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2">
         <v>15</v>
       </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G65" s="2">
+        <v>7</v>
+      </c>
+      <c r="H65" s="2">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>30001</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="8">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="G66" s="2">
+        <v>5</v>
+      </c>
+      <c r="H66" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>30002</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="8">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2">
+        <v>20</v>
+      </c>
+      <c r="G67" s="2">
+        <v>10</v>
+      </c>
+      <c r="H67" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>30003</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="8">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2">
         <v>15</v>
       </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
+      <c r="G68" s="2">
+        <v>7</v>
+      </c>
+      <c r="H68" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>30004</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="8">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2">
+        <v>15</v>
+      </c>
+      <c r="G69" s="2">
+        <v>7</v>
+      </c>
+      <c r="H69" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>30005</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="8">
+        <v>3</v>
+      </c>
+      <c r="F70" s="2">
+        <v>15</v>
+      </c>
+      <c r="G70" s="2">
+        <v>7</v>
+      </c>
+      <c r="H70" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>30006</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="8">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2">
+        <v>15</v>
+      </c>
+      <c r="G71" s="2">
+        <v>7</v>
+      </c>
+      <c r="H71" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -734,12 +2544,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +2575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -791,7 +2601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -817,18 +2627,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>